--- a/biology/Microbiologie/Gélose_Salmonella_Shigella/Gélose_Salmonella_Shigella.xlsx
+++ b/biology/Microbiologie/Gélose_Salmonella_Shigella/Gélose_Salmonella_Shigella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Salmonella_Shigella</t>
+          <t>Gélose_Salmonella_Shigella</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isolement de Salmonella, Shigella ouYersinia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Salmonella_Shigella</t>
+          <t>Gélose_Salmonella_Shigella</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">-peptone:......................5,0 g
 -extrait de viande:............5,0 g
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Salmonella_Shigella</t>
+          <t>Gélose_Salmonella_Shigella</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">63 g de poudre dissous par ébullition.
 Se reporter à la notice en raison de variations de la composition(Formule moins inhibitrice des Shigella à 5,5 g de sels biliaires par exemple).
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Salmonella_Shigella</t>
+          <t>Gélose_Salmonella_Shigella</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lac - : colonies incoloresLac + : colonies rouges Centre noir : H2S +Pas de centre noir : H2S -Ne cultivent normalement sur ce milieu que les Gram - cultivant facilement. Toutefois on peut rencontrer des Enterococcus tout particulièrement pour certaines compositions.Les coliformes, comme les bacilles Gram- oxydase + (Pseudomonas) ne sont pas inhibés contrairement aux affirmations parfois rencontrées.
  Portail de la microbiologie                     </t>
